--- a/untranslated/downloads/data-excel/11.6.1.1a.xlsx
+++ b/untranslated/downloads/data-excel/11.6.1.1a.xlsx
@@ -86,12 +86,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,6 +121,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -144,38 +158,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -477,9 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -488,7 +524,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -499,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -510,8 +546,9 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -542,8 +579,11 @@
       <c r="J3" s="5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -574,8 +614,11 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -606,8 +649,11 @@
       <c r="J5" s="1">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="11">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -638,8 +684,11 @@
       <c r="J6" s="1">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="12">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -670,8 +719,11 @@
       <c r="J7" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="13">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -702,8 +754,11 @@
       <c r="J8" s="7">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="14">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>

--- a/untranslated/downloads/data-excel/11.6.1.1a.xlsx
+++ b/untranslated/downloads/data-excel/11.6.1.1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>11.6.1.1a Избавление от твердых бытовых отходов домашними хозяйствами по видам (мусоропровод; сбор грузовиком, контейнером; сброс в мусорные кучи; сжигание; закапывание)</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Көмүү</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +140,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -205,6 +221,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -511,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -524,7 +543,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -535,236 +554,285 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>2013</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>2014</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>2015</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>2016</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>2017</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>2018</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="5">
         <v>2019</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K4" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="L4" s="9">
+        <v>2021</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="6">
         <v>0.3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="6">
         <v>0.2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="6">
         <v>0.1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="6">
         <v>0.1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="6">
         <v>0.1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I5" s="6">
         <v>0.1</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>26.9</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <v>27.7</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F6" s="6">
         <v>30.6</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="6">
         <v>31.3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="6">
         <v>38.799999999999997</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I6" s="6">
         <v>44</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="1">
         <v>46.9</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K6" s="11">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="L6" s="11">
+        <v>58.405380200320216</v>
+      </c>
+      <c r="M6" s="11">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>21.6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>23.4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>29</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="6">
         <v>22.4</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="6">
         <v>21.8</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I7" s="6">
         <v>20.2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J7" s="1">
         <v>20.2</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K7" s="12">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="L7" s="12">
+        <v>11.673077354810609</v>
+      </c>
+      <c r="M7" s="12">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>33</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>31.8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <v>29.8</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="6">
         <v>32.9</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="6">
         <v>28.6</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="6">
         <v>25.6</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="8">
         <v>24</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K8" s="13">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="L8" s="13">
+        <v>22.564920591204277</v>
+      </c>
+      <c r="M8" s="13">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>18.2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>16.899999999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>10.6</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>13.4</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>10.9</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>8.9</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="14">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="L9" s="14">
+        <v>7.3566218536648895</v>
+      </c>
+      <c r="M9" s="14">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/untranslated/downloads/data-excel/11.6.1.1a.xlsx
+++ b/untranslated/downloads/data-excel/11.6.1.1a.xlsx
@@ -530,11 +530,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -543,7 +541,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -554,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -565,7 +563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -579,8 +577,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,8 +619,11 @@
       <c r="M4" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -661,8 +663,11 @@
       <c r="M5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -702,8 +707,11 @@
       <c r="M6" s="11">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="11">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -737,14 +745,17 @@
       <c r="K7" s="12">
         <v>19.3</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>11.673077354810609</v>
       </c>
       <c r="M7" s="12">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="12">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -784,8 +795,11 @@
       <c r="M8" s="13">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="13">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -825,8 +839,11 @@
       <c r="M9" s="14">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="14">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
